--- a/Data/Summary_Classifiers.xlsx
+++ b/Data/Summary_Classifiers.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="24">
   <si>
     <t>RandomForestClassifier</t>
   </si>
@@ -52,15 +53,63 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Cover-Type</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Score 4</t>
+  </si>
+  <si>
+    <t>Score 5</t>
+  </si>
+  <si>
+    <t>GeoSoils</t>
+  </si>
+  <si>
+    <t>Elevation</t>
+  </si>
+  <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>9am</t>
+  </si>
+  <si>
+    <t>3pm</t>
+  </si>
+  <si>
+    <t>Hydrology</t>
+  </si>
+  <si>
+    <t>Fire-Points</t>
+  </si>
+  <si>
+    <t>NaN</t>
+  </si>
+  <si>
+    <t>1-a1</t>
+  </si>
+  <si>
+    <t>1-a2</t>
+  </si>
+  <si>
+    <t>RFC -  100</t>
+  </si>
+  <si>
+    <t>RFC - 50</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -83,6 +132,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -104,18 +159,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,6 +190,2141 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RFC -  100</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Score 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Score 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.889193736067212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.889704262497686</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.888239316201209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RFC - 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Score 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Score 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.888239316201209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887515914926333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.886165201550433</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Score 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Score 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.727185013551585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.726916584304197</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.726800895549918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$1:$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Score 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Score 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Score 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8562931878029</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.8585643758713</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.857302597089932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-2053606544"/>
+        <c:axId val="-2027217856"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-2053606544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2027217856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2027217856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.7"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2053606544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Model Comaprisons</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RFC -  100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RFC - 50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.889193736067212</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.888239316201209</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.727185013551585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8562931878029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RFC -  100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RFC - 50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.889704262497686</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.887515914926333</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.726916584304197</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8585643758713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Score 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>RFC -  100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>RFC - 50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>LogisticRegression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>DecisionTreeClassifier</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.888239316201209</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.886165201550433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.726800895549918</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.857302597089932</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="-2097279168"/>
+        <c:axId val="-2024047296"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2097279168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2024047296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2024047296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.65"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2097279168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>298450</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -393,117 +2590,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="B1:F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="A1:P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
         <v>100</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2">
         <v>0.88919373606721197</v>
       </c>
-      <c r="D2" s="2">
+      <c r="L2" s="2">
         <v>0.88970426249768597</v>
       </c>
-      <c r="E2" s="2">
+      <c r="M2" s="2">
         <v>0.88823931620120899</v>
       </c>
-      <c r="F2" s="2">
-        <f>AVERAGE(C2:E2)</f>
+      <c r="P2" s="2">
+        <f>AVERAGE(K2:M2)</f>
         <v>0.88904577158870224</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="1">
         <v>50</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2">
         <v>0.88823931620120899</v>
       </c>
-      <c r="D3" s="2">
+      <c r="L3" s="2">
         <v>0.88751591492633297</v>
       </c>
-      <c r="E3" s="2">
+      <c r="M3" s="2">
         <v>0.88616520155043299</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F5" si="0">AVERAGE(C3:E3)</f>
+      <c r="P3" s="2">
+        <f>AVERAGE(K3:M3)</f>
         <v>0.88730681089265839</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2">
         <v>0.72718501355158505</v>
       </c>
-      <c r="D4" s="2">
+      <c r="L4" s="2">
         <v>0.72691658430419703</v>
       </c>
-      <c r="E4" s="2">
+      <c r="M4" s="2">
         <v>0.726800895549918</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="0"/>
+      <c r="P4" s="2">
+        <f>AVERAGE(K4:M4)</f>
         <v>0.72696749780189995</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="2">
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2">
         <v>0.85629318780289998</v>
       </c>
-      <c r="D5" s="2">
+      <c r="L5" s="2">
         <v>0.85856437587129997</v>
       </c>
-      <c r="E5" s="2">
+      <c r="M5" s="2">
         <v>0.85730259708993195</v>
       </c>
-      <c r="F5" s="2">
+      <c r="P5" s="2">
+        <f>AVERAGE(K5:M5)</f>
+        <v>0.85738672025471063</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="2">
+        <v>0.87309128907042699</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0.87368676583079596</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0.87415665823972799</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.87323944384554697</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0.87398479506642901</v>
+      </c>
+      <c r="P6" s="2">
+        <f>AVERAGE(K6:O6)</f>
+        <v>0.87363179041058525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="2">
+        <v>0.86305879291502197</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0.86281603309633403</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0.86250963954884396</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0.86384997283613496</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0.863303904964145</v>
+      </c>
+      <c r="P7" s="2">
+        <f t="shared" ref="P7:P13" si="0">AVERAGE(K7:O7)</f>
+        <v>0.86310766867209598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="2">
+        <v>0.90277145432958406</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0.900988927571023</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.90216459689484596</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0.90291720168555401</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0.90352910959320798</v>
+      </c>
+      <c r="P8" s="2">
         <f t="shared" si="0"/>
-        <v>0.85738672025471063</v>
+        <v>0.90247425801484304</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="2">
+        <v>0.86986883338864895</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0.859008080919756</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.86191281309632295</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0.86120997643643105</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0.86409395627144203</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.86321873202252031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="2">
+        <v>0.80401532530453701</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0.80302683128300001</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.801640139061922</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.80197882470431203</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0.80380222325014405</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" si="0"/>
+        <v>0.80289266872078302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="2">
+        <v>0.82998272555404595</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0.83381582917837005</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0.83363989656118997</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0.831673487322381</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0.83341069273674195</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" si="0"/>
+        <v>0.83250452627054583</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <v>7</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="8">
+        <v>1.3475112061646101E-2</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0.37395124282428499</v>
+      </c>
+      <c r="F12" s="7">
+        <v>6.7121616733928899E-2</v>
+      </c>
+      <c r="G12" s="7">
+        <v>8.2862113537879506E-2</v>
+      </c>
+      <c r="H12" s="7">
+        <v>9.73689665156591E-2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0.12481446114372199</v>
+      </c>
+      <c r="J12" s="7">
+        <v>0.24040648718287799</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0.91132793956346403</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0.90925881513151896</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0.91039433569228401</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0.91054525157317101</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0.91233752301138904</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91077277299436543</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="7">
+        <v>0.39239029459873598</v>
+      </c>
+      <c r="F13" s="7">
+        <v>6.62464296959797E-2</v>
+      </c>
+      <c r="G13" s="7">
+        <v>9.7702750825073098E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9.7649126171600598E-2</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0.120216006801142</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.225795391907466</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.91132793956346403</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" si="0"/>
+        <v>0.91132793956346403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>0.39265024165474199</v>
+      </c>
+      <c r="F14" s="3">
+        <v>6.6407077653948404E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.8076966677178495E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9.67023662932745E-2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.12036250974407001</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.22580083797678499</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0.90925881513151896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K15" s="2">
+        <v>0.91039433569228401</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="K16" s="2">
+        <v>0.91054525157317101</v>
+      </c>
+    </row>
+    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="9">
+        <v>0.91233752301138904</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="A1:D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.88919373606721197</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.88970426249768597</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.88823931620120899</v>
+      </c>
+      <c r="E2" s="2">
+        <f>AVERAGE(B2:D2)</f>
+        <v>0.88904577158870224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.88823931620120899</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.88751591492633297</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.88616520155043299</v>
+      </c>
+      <c r="E3" s="2">
+        <f>AVERAGE(B3:D3)</f>
+        <v>0.88730681089265839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.72718501355158505</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.72691658430419703</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.726800895549918</v>
+      </c>
+      <c r="E4" s="2">
+        <f>AVERAGE(B4:D4)</f>
+        <v>0.72696749780189995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>0.85629318780289998</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.85856437587129997</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.85730259708993195</v>
+      </c>
+      <c r="E5" s="2">
+        <f>AVERAGE(B5:D5)</f>
+        <v>0.85738672025471063</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/Summary_Classifiers.xlsx
+++ b/Data/Summary_Classifiers.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="15540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24300" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,7 +109,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -132,12 +132,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -159,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -174,10 +168,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -504,11 +497,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-2053606544"/>
-        <c:axId val="-2027217856"/>
+        <c:axId val="-2028871984"/>
+        <c:axId val="-2097276048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2053606544"/>
+        <c:axId val="-2028871984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -551,7 +544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2027217856"/>
+        <c:crossAx val="-2097276048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -559,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2027217856"/>
+        <c:axId val="-2097276048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -610,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2053606544"/>
+        <c:crossAx val="-2028871984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -712,7 +705,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -725,7 +718,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" b="1"/>
               <a:t>Model Comaprisons</a:t>
             </a:r>
           </a:p>
@@ -745,7 +738,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -976,11 +969,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2097279168"/>
-        <c:axId val="-2024047296"/>
+        <c:axId val="-2028176944"/>
+        <c:axId val="-2028205824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2097279168"/>
+        <c:axId val="-2028176944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1008,7 +1001,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1023,7 +1016,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2024047296"/>
+        <c:crossAx val="-2028205824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1031,7 +1024,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2024047296"/>
+        <c:axId val="-2028205824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.65"/>
@@ -1067,7 +1060,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1082,7 +1075,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097279168"/>
+        <c:crossAx val="-2028176944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1110,7 +1103,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2296,16 +2289,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2592,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="A1:P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2603,11 +2596,11 @@
     <col min="3" max="3" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.5" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19" x14ac:dyDescent="0.25">
@@ -3070,25 +3063,25 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="2">
         <v>1.3475112061646101E-2</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="2">
         <v>0.37395124282428499</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F12" s="2">
         <v>6.7121616733928899E-2</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="2">
         <v>8.2862113537879506E-2</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="2">
         <v>9.73689665156591E-2</v>
       </c>
-      <c r="I12" s="7">
+      <c r="I12" s="2">
         <v>0.12481446114372199</v>
       </c>
-      <c r="J12" s="7">
+      <c r="J12" s="2">
         <v>0.24040648718287799</v>
       </c>
       <c r="K12" s="2">
@@ -3121,23 +3114,23 @@
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="7">
+      <c r="D13" s="4"/>
+      <c r="E13" s="2">
         <v>0.39239029459873598</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F13" s="2">
         <v>6.62464296959797E-2</v>
       </c>
-      <c r="G13" s="7">
+      <c r="G13" s="2">
         <v>9.7702750825073098E-2</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>9.7649126171600598E-2</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="2">
         <v>0.120216006801142</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="2">
         <v>0.225795391907466</v>
       </c>
       <c r="K13" s="2">
@@ -3158,23 +3151,23 @@
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3">
+      <c r="D14" s="4"/>
+      <c r="E14" s="2">
         <v>0.39265024165474199</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>6.6407077653948404E-2</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>9.8076966677178495E-2</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>9.67023662932745E-2</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0.12036250974407001</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.22580083797678499</v>
       </c>
       <c r="K14" s="2">
@@ -3182,6 +3175,13 @@
       </c>
     </row>
     <row r="15" spans="1:16" ht="19" x14ac:dyDescent="0.25">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="2">
         <v>0.91039433569228401</v>
       </c>
@@ -3191,8 +3191,8 @@
         <v>0.91054525157317101</v>
       </c>
     </row>
-    <row r="17" spans="11:11" x14ac:dyDescent="0.2">
-      <c r="K17" s="9">
+    <row r="17" spans="11:11" ht="19" x14ac:dyDescent="0.25">
+      <c r="K17" s="2">
         <v>0.91233752301138904</v>
       </c>
     </row>
@@ -3205,8 +3205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="A1:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N33" sqref="N33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
